--- a/data/xlsx_shape_test.xlsx
+++ b/data/xlsx_shape_test.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C885F97-2B7A-4B33-919E-E8565337B1CF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0132AA19-A07C-49FA-AFAE-E416830ACD14}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet_role" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="58">
   <si>
     <t>sheet_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,10 +77,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>128,238,80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>circle_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -129,10 +125,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ref(colors, str)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tile_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -214,6 +206,58 @@
   </si>
   <si>
     <t>blue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>str</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tuple(int, int, int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ref(all_colors, str)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>black</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>red</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">green </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>white</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(128,238,80)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>red</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -257,8 +301,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -539,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -563,20 +608,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
         <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -598,28 +643,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" t="s">
-        <v>28</v>
-      </c>
       <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>21</v>
-      </c>
-      <c r="H1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -639,13 +684,13 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -666,28 +711,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" t="s">
-        <v>34</v>
-      </c>
       <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>20</v>
-      </c>
-      <c r="H1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -707,13 +752,13 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -727,41 +772,41 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
         <v>37</v>
       </c>
-      <c r="D1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" t="s">
-        <v>39</v>
-      </c>
       <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>20</v>
-      </c>
-      <c r="J1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -787,13 +832,13 @@
         <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -805,13 +850,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EC94B35-9725-4AFF-93E2-75C8BA71255C}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="9" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -820,7 +868,7 @@
       <c r="B1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -831,72 +879,73 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>1000</v>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
-        <v>12</v>
+      <c r="C5" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCDDCA0A-57A4-4235-89F4-63017FFAA865}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>21</v>
-      </c>
-      <c r="H1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -916,13 +965,36 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3">
+        <v>700</v>
+      </c>
+      <c r="C3">
+        <v>900</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -933,35 +1005,58 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DAE8683-00A7-4798-B708-82A2E746ACEB}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" t="s">
-        <v>42</v>
-      </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -973,26 +1068,26 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5769B10-9484-4289-BE42-B80511001860}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>44</v>
-      </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1007,6 +1102,76 @@
       </c>
       <c r="D2" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5">
+        <v>255</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>255</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8">
+        <v>255</v>
+      </c>
+      <c r="C8">
+        <v>255</v>
+      </c>
+      <c r="D8">
+        <v>255</v>
       </c>
     </row>
   </sheetData>

--- a/data/xlsx_shape_test.xlsx
+++ b/data/xlsx_shape_test.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0132AA19-A07C-49FA-AFAE-E416830ACD14}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BED4664-6F37-4CAB-9888-0A1662F525BB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet_role" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="57">
   <si>
     <t>sheet_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,10 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tuple(int, 3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>circle_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -165,10 +161,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tuple(int,3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>from_pos_idx_begin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -258,6 +250,10 @@
   </si>
   <si>
     <t>red</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list(int, 3)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -586,13 +582,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -600,7 +596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -608,7 +604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -616,12 +612,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -636,61 +632,61 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -704,61 +700,61 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="A1:H2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" t="s">
         <v>32</v>
       </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" t="s">
-        <v>33</v>
-      </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -772,73 +768,73 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
-        <v>29</v>
-      </c>
       <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" t="s">
         <v>32</v>
       </c>
-      <c r="G1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" t="s">
-        <v>33</v>
-      </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -853,15 +849,15 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -872,7 +868,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -883,7 +879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -894,15 +890,15 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -914,92 +910,93 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCDDCA0A-57A4-4235-89F4-63017FFAA865}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4">
         <v>700</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>900</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3">
+      <c r="F4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4">
         <v>1</v>
       </c>
-      <c r="H3">
+      <c r="H4">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1008,55 +1005,55 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
         <v>38</v>
       </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>40</v>
-      </c>
       <c r="G1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" t="s">
         <v>45</v>
       </c>
-      <c r="B2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" t="s">
         <v>46</v>
-      </c>
-      <c r="D2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1071,26 +1068,26 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1104,9 +1101,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1118,9 +1115,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B5">
         <v>255</v>
@@ -1132,9 +1129,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1146,9 +1143,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1160,9 +1157,9 @@
         <v>255</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B8">
         <v>255</v>

--- a/data/xlsx_shape_test.xlsx
+++ b/data/xlsx_shape_test.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BED4664-6F37-4CAB-9888-0A1662F525BB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D0C0A7-AC41-46F8-940A-1BF2BC32B106}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet_role" sheetId="1" r:id="rId1"/>
@@ -582,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -913,7 +913,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -990,7 +990,7 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1067,8 +1067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5769B10-9484-4289-BE42-B80511001860}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
